--- a/Record.xlsx
+++ b/Record.xlsx
@@ -19,10 +19,10 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
   </si>
   <si>
     <t>First Message</t>
@@ -85,9 +85,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -329,10 +327,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>44163.0</v>
+        <v>44164.0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.125</v>
+        <v>0.2881944444444444</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -343,10 +341,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>44163.0</v>
+        <v>44164.0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.12569444444444444</v>
+        <v>0.28888888888888886</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -357,10 +355,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>44163.0</v>
+        <v>44164.0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.12638888888888888</v>
+        <v>0.28958333333333336</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
